--- a/biology/Zoologie/Bison_des_bois/Bison_des_bois.xlsx
+++ b/biology/Zoologie/Bison_des_bois/Bison_des_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bison bison athabascae
 Le Bison des bois, Bison bison athabascae, est une sous-espèce du Bison d'Amérique du Nord qui vit dans la taïga nord-américaine. Plus massif que le Bison des plaines, le Bison des bois est le plus gros mammifère terrestre d'Amérique du Nord.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite la forêt boréale (ou taïga) du Canada et de l'Alaska. La sous-espèce est majoritairement composée d'animaux vivant en liberté (de l´ordre de 7.500 individus) à l'inverse du Bison des plaines (Bison bison bison) qui a été largement domestiqué.
 Son habitat est forestier à l'instar du Bison d'Europe.
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rhoads, 1897 : Notes on Living and Extinct Species of North American Bovidæ. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 49, pp. 483-502 (texte intégral) (en).</t>
         </is>
